--- a/tests/fixtures/bundles/Smart-seq2/Q4DemoSS2Metadata_v5_plainHeaders.xlsx
+++ b/tests/fixtures/bundles/Smart-seq2/Q4DemoSS2Metadata_v5_plainHeaders.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwelter/Development/HCA/metadata-schema/examples/spreadsheets/v5/filled/SmartSeq2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="3800" windowWidth="28800" windowHeight="17620" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="16040" tabRatio="778" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -22,20 +17,20 @@
     <sheet name="protocol" sheetId="17" r:id="rId8"/>
     <sheet name="sequence_file" sheetId="18" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="256">
   <si>
     <t>A unique label for the project.</t>
   </si>
@@ -376,9 +371,6 @@
     <t>Q4_DEMO-Single cell RNA-seq of primary human glioblastomas</t>
   </si>
   <si>
-    <t>Q4_DEMO-MintTeam</t>
-  </si>
-  <si>
     <t>dummy@email.com</t>
   </si>
   <si>
@@ -409,9 +401,6 @@
     <t>Q4_DEMO-protocol.pdf</t>
   </si>
   <si>
-    <t>assay_1</t>
-  </si>
-  <si>
     <t>R1.fastq.gz</t>
   </si>
   <si>
@@ -796,13 +785,25 @@
     <t>max_size_selected</t>
   </si>
   <si>
-    <t>enrichment1||preparation1||assay_1</t>
+    <t>Dummy,,Submitter</t>
+  </si>
+  <si>
+    <t>sequencing1</t>
+  </si>
+  <si>
+    <t>sequencing_protocol1</t>
+  </si>
+  <si>
+    <t>enrichment1||preparation1||sequencing1</t>
+  </si>
+  <si>
+    <t>enrichment_protocol1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -883,8 +884,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -930,7 +941,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -946,6 +957,11 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -961,6 +977,11 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1264,10 +1285,10 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -1278,7 +1299,7 @@
     <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +1325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1322,33 +1343,33 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="8" customFormat="1">
       <c r="A3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -1374,10 +1395,10 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
@@ -1388,7 +1409,7 @@
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1414,7 +1435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1426,38 +1447,38 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="8" customFormat="1">
       <c r="A3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" t="s">
         <v>113</v>
-      </c>
-      <c r="B4" t="s">
-        <v>114</v>
       </c>
       <c r="H4" t="s">
         <v>111</v>
@@ -1477,11 +1498,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -1509,7 +1530,7 @@
     <col min="25" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1589,7 +1610,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1621,148 +1642,148 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38">
       <c r="A3" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="U3" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="V3" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="W3" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="X3" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="Y3" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="Z3" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="AA3" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="AB3" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AC3" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AD3" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AE3" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AF3" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AG3" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AH3" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AI3" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="AI3" s="9" t="s">
+      <c r="AK3" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AJ3" s="9" t="s">
+      <c r="AL3" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="AK3" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="AL3" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:38" s="3" customFormat="1" ht="13">
       <c r="A4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="D4" s="3">
         <v>9606</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AI4" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
       <c r="E5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1775,11 +1796,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -1799,7 +1820,7 @@
     <col min="16" max="16" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1849,7 +1870,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1873,128 +1894,128 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29">
       <c r="A3" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>165</v>
-      </c>
       <c r="K3" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L3" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="O3" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="O3" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="P3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="U3" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="V3" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="W3" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="X3" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="Y3" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="Z3" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="AA3" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="AB3" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="AA3" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>209</v>
-      </c>
       <c r="AC3" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D4" s="3">
         <v>9606</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>47</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2014,10 +2035,10 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -2027,10 +2048,11 @@
     <col min="6" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="10" width="21" customWidth="1"/>
-    <col min="11" max="12" width="12" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -2068,7 +2090,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2092,57 +2114,61 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G4" t="s">
         <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="L4" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2155,11 +2181,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -2174,7 +2200,7 @@
     <col min="12" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -2215,7 +2241,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2242,68 +2268,68 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="8" customFormat="1">
       <c r="A3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:13" ht="28">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K4" t="s">
         <v>79</v>
       </c>
       <c r="L4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2321,11 +2347,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -2344,7 +2370,7 @@
     <col min="15" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -2397,7 +2423,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2426,78 +2452,79 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="8" customFormat="1">
       <c r="A3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="P3" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I4" t="s">
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>121</v>
+        <v>134</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2508,15 +2535,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -2525,7 +2552,7 @@
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>91</v>
       </c>
@@ -2548,7 +2575,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2561,53 +2588,62 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" t="s">
         <v>237</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="H3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>121</v>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>255</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" t="s">
         <v>131</v>
       </c>
-      <c r="G5" t="s">
-        <v>133</v>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2621,10 +2657,10 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -2636,7 +2672,7 @@
     <col min="9" max="9" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -2665,7 +2701,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2682,41 +2718,41 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="8" customFormat="1">
       <c r="A3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
         <v>109</v>
@@ -2726,31 +2762,31 @@
       </c>
       <c r="F4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="I5" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
